--- a/Test data.xlsx
+++ b/Test data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66e133f54e6731c5/Desktop/Project. Java and Web Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFD11C80-4D3E-44F9-8CCE-69E921414C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{DFD11C80-4D3E-44F9-8CCE-69E921414C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91C0A507-D45E-4E92-864A-79E00BD9151F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A4FDD5F-AE5A-47E1-9ABE-1BF9954BB85C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A4FDD5F-AE5A-47E1-9ABE-1BF9954BB85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Recipes" sheetId="2" r:id="rId2"/>
+    <sheet name="Reviews" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>Test Data</t>
   </si>
@@ -175,24 +176,6 @@
     <t>Title cannot be blank</t>
   </si>
   <si>
-    <t>Cocoa</t>
-  </si>
-  <si>
-    <t>Very tasty cacoa</t>
-  </si>
-  <si>
-    <t>200 ml milk, 10 g cocoa powder, 20 g sugar</t>
-  </si>
-  <si>
-    <t>Put everyhing in a pot, boil it, and stir for 5 min</t>
-  </si>
-  <si>
-    <t>C:\Users\edita\OneDrive\Desktop\cocoa.jpeg</t>
-  </si>
-  <si>
-    <t>Category cannot be blank</t>
-  </si>
-  <si>
     <t>Hot Reuben Dip</t>
   </si>
   <si>
@@ -278,6 +261,24 @@
   </si>
   <si>
     <t>Invalid image format. Only .jpeg, .png, and .jpg are allowed</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>No. of stars</t>
+  </si>
+  <si>
+    <t>Very good recipe</t>
+  </si>
+  <si>
+    <t>Too sweet for me</t>
+  </si>
+  <si>
+    <t>Valid input, it is assumed that the user gave 1 star</t>
+  </si>
+  <si>
+    <t>The review cannot be blank</t>
   </si>
 </sst>
 </file>
@@ -433,11 +434,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -482,6 +480,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -802,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BE7798-7CE9-425F-B456-69AB5D6A8F43}">
   <dimension ref="B3:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,117 +834,117 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -949,10 +966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0106C-C464-4E54-87DE-B1826C653437}">
-  <dimension ref="B3:H13"/>
+  <dimension ref="B3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,123 +984,123 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1091,86 +1108,65 @@
       <c r="B10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="15" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="18" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1179,4 +1175,77 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297408A7-E992-488E-962C-9F6993CC55E3}">
+  <dimension ref="B3:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="23">
+        <v>5</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="26">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="28">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>